--- a/docs/ambsim_logattributesw_outputs.xlsx
+++ b/docs/ambsim_logattributesw_outputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhsengland-my.sharepoint.com/personal/martina_fonseca_england_nhs_uk/Documents/Documents/Projects/AmbModelOpen/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{C3C33CBA-25E7-492A-8474-C7976F925440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FB1B09B-DAD2-4506-AB02-4591DF209EAF}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{C3C33CBA-25E7-492A-8474-C7976F925440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{314D2702-1943-403E-A70E-1193F54EEFAB}"/>
   <bookViews>
-    <workbookView xWindow="-8535" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{4F327F8D-D676-4321-905B-CBFEBA957305}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="16920" windowHeight="10540" xr2:uid="{4F327F8D-D676-4321-905B-CBFEBA957305}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>name</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t>The model replication number</t>
@@ -570,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C8A201-77C9-4F21-B287-8570CA14DB3C}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -581,247 +578,244 @@
     <col min="1" max="1" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="C23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="C27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="C28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="C29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="C30" t="s">
-        <v>59</v>
+      <c r="B30" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
